--- a/public/uploads/${ID_ORDEN_SERVICIO} Orden Upgrade ${ID_ORDEN_SERVICIO_LETRAS} Datos ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${ID_SERVICIO}.xlsx
+++ b/public/uploads/${ID_ORDEN_SERVICIO} Orden Upgrade ${ID_ORDEN_SERVICIO_LETRAS} Datos ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${ID_SERVICIO}.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">CELULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">${ID_ORDEN_SERVICIO}</t>
+    <t xml:space="preserve">${ID_SERVICIO}</t>
   </si>
   <si>
     <t xml:space="preserve">${CONCENTRADOR_CIU_NOMBRE}</t>
@@ -248,7 +248,7 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
